--- a/metadata/CITESEQ1_Ab and Barcodes.xlsx
+++ b/metadata/CITESEQ1_Ab and Barcodes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
     <sheet name="CiteSeqAb_Run 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Cellranger Feature CSV" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -861,7 +861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -912,6 +912,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -945,7 +947,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -978,6 +980,7 @@
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -987,6 +990,7 @@
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2695,12 +2699,15 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
